--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.63718533333333</v>
+        <v>24.999262</v>
       </c>
       <c r="H2">
-        <v>232.911556</v>
+        <v>74.997786</v>
       </c>
       <c r="I2">
-        <v>0.4513549673384918</v>
+        <v>0.2094245171924971</v>
       </c>
       <c r="J2">
-        <v>0.4513549673384918</v>
+        <v>0.209424517192497</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.425673333333334</v>
+        <v>0.2570643333333333</v>
       </c>
       <c r="N2">
-        <v>7.27702</v>
+        <v>0.771193</v>
       </c>
       <c r="O2">
-        <v>0.6040766302760682</v>
+        <v>0.1391871519274401</v>
       </c>
       <c r="P2">
-        <v>0.6040766302760682</v>
+        <v>0.1391871519274401</v>
       </c>
       <c r="Q2">
-        <v>188.3224501381245</v>
+        <v>6.426418619855334</v>
       </c>
       <c r="R2">
-        <v>1694.90205124312</v>
+        <v>57.83776757869801</v>
       </c>
       <c r="S2">
-        <v>0.272652987728201</v>
+        <v>0.02914920209180287</v>
       </c>
       <c r="T2">
-        <v>0.272652987728201</v>
+        <v>0.02914920209180287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.63718533333333</v>
+        <v>24.999262</v>
       </c>
       <c r="H3">
-        <v>232.911556</v>
+        <v>74.997786</v>
       </c>
       <c r="I3">
-        <v>0.4513549673384918</v>
+        <v>0.2094245171924971</v>
       </c>
       <c r="J3">
-        <v>0.4513549673384918</v>
+        <v>0.209424517192497</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.973843</v>
       </c>
       <c r="O3">
-        <v>0.2468632844777222</v>
+        <v>0.5367278196889161</v>
       </c>
       <c r="P3">
-        <v>0.2468632844777221</v>
+        <v>0.536727819688916</v>
       </c>
       <c r="Q3">
-        <v>76.96026671441201</v>
+        <v>24.78129343462201</v>
       </c>
       <c r="R3">
-        <v>692.6424004297081</v>
+        <v>223.0316409115981</v>
       </c>
       <c r="S3">
-        <v>0.1114229697025151</v>
+        <v>0.1124039645021329</v>
       </c>
       <c r="T3">
-        <v>0.1114229697025151</v>
+        <v>0.1124039645021328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.63718533333333</v>
+        <v>24.999262</v>
       </c>
       <c r="H4">
-        <v>232.911556</v>
+        <v>74.997786</v>
       </c>
       <c r="I4">
-        <v>0.4513549673384918</v>
+        <v>0.2094245171924971</v>
       </c>
       <c r="J4">
-        <v>0.4513549673384918</v>
+        <v>0.209424517192497</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.795655</v>
       </c>
       <c r="O4">
-        <v>0.1490600852462097</v>
+        <v>0.3240850283836438</v>
       </c>
       <c r="P4">
-        <v>0.1490600852462097</v>
+        <v>0.3240850283836438</v>
       </c>
       <c r="Q4">
-        <v>46.46986667657556</v>
+        <v>14.96334993553667</v>
       </c>
       <c r="R4">
-        <v>418.22880008918</v>
+        <v>134.67014941983</v>
       </c>
       <c r="S4">
-        <v>0.0672790099077758</v>
+        <v>0.06787135059856131</v>
       </c>
       <c r="T4">
-        <v>0.0672790099077758</v>
+        <v>0.06787135059856129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>187.224476</v>
       </c>
       <c r="I5">
-        <v>0.3628188257432201</v>
+        <v>0.522807373179233</v>
       </c>
       <c r="J5">
-        <v>0.3628188257432201</v>
+        <v>0.5228073731792329</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.425673333333334</v>
+        <v>0.2570643333333333</v>
       </c>
       <c r="N5">
-        <v>7.27702</v>
+        <v>0.771193</v>
       </c>
       <c r="O5">
-        <v>0.6040766302760682</v>
+        <v>0.1391871519274401</v>
       </c>
       <c r="P5">
-        <v>0.6040766302760682</v>
+        <v>0.1391871519274401</v>
       </c>
       <c r="Q5">
-        <v>151.3818062601689</v>
+        <v>16.04291170220756</v>
       </c>
       <c r="R5">
-        <v>1362.43625634152</v>
+        <v>144.386205319868</v>
       </c>
       <c r="S5">
-        <v>0.2191703736556844</v>
+        <v>0.07276806927948376</v>
       </c>
       <c r="T5">
-        <v>0.2191703736556844</v>
+        <v>0.07276806927948375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>187.224476</v>
       </c>
       <c r="I6">
-        <v>0.3628188257432201</v>
+        <v>0.522807373179233</v>
       </c>
       <c r="J6">
-        <v>0.3628188257432201</v>
+        <v>0.5228073731792329</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.973843</v>
       </c>
       <c r="O6">
-        <v>0.2468632844777222</v>
+        <v>0.5367278196889161</v>
       </c>
       <c r="P6">
-        <v>0.2468632844777221</v>
+        <v>0.536727819688916</v>
       </c>
       <c r="Q6">
         <v>61.86402193125202</v>
@@ -818,10 +818,10 @@
         <v>556.7761973812682</v>
       </c>
       <c r="S6">
-        <v>0.08956664699332165</v>
+        <v>0.2806052615237792</v>
       </c>
       <c r="T6">
-        <v>0.08956664699332163</v>
+        <v>0.2806052615237791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>187.224476</v>
       </c>
       <c r="I7">
-        <v>0.3628188257432201</v>
+        <v>0.522807373179233</v>
       </c>
       <c r="J7">
-        <v>0.3628188257432201</v>
+        <v>0.5228073731792329</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.795655</v>
       </c>
       <c r="O7">
-        <v>0.1490600852462097</v>
+        <v>0.3240850283836438</v>
       </c>
       <c r="P7">
-        <v>0.1490600852462097</v>
+        <v>0.3240850283836438</v>
       </c>
       <c r="Q7">
         <v>37.35450738353111</v>
@@ -880,10 +880,10 @@
         <v>336.19056645178</v>
       </c>
       <c r="S7">
-        <v>0.0540818050942141</v>
+        <v>0.16943404237597</v>
       </c>
       <c r="T7">
-        <v>0.0540818050942141</v>
+        <v>0.1694340423759699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>95.891425</v>
       </c>
       <c r="I8">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="J8">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.425673333333334</v>
+        <v>0.2570643333333333</v>
       </c>
       <c r="N8">
-        <v>7.27702</v>
+        <v>0.771193</v>
       </c>
       <c r="O8">
-        <v>0.6040766302760682</v>
+        <v>0.1391871519274401</v>
       </c>
       <c r="P8">
-        <v>0.6040766302760682</v>
+        <v>0.1391871519274401</v>
       </c>
       <c r="Q8">
-        <v>77.53375750594445</v>
+        <v>8.216755080002779</v>
       </c>
       <c r="R8">
-        <v>697.8038175535</v>
+        <v>73.950795720025</v>
       </c>
       <c r="S8">
-        <v>0.1122532688921828</v>
+        <v>0.03726988055615345</v>
       </c>
       <c r="T8">
-        <v>0.1122532688921828</v>
+        <v>0.03726988055615345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>95.891425</v>
       </c>
       <c r="I9">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="J9">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.973843</v>
       </c>
       <c r="O9">
-        <v>0.2468632844777222</v>
+        <v>0.5367278196889161</v>
       </c>
       <c r="P9">
-        <v>0.2468632844777221</v>
+        <v>0.536727819688916</v>
       </c>
       <c r="Q9">
         <v>31.68511588847501</v>
@@ -1004,10 +1004,10 @@
         <v>285.1660429962751</v>
       </c>
       <c r="S9">
-        <v>0.04587366778188541</v>
+        <v>0.1437185936630041</v>
       </c>
       <c r="T9">
-        <v>0.0458736677818854</v>
+        <v>0.143718593663004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>95.891425</v>
       </c>
       <c r="I10">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="J10">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.795655</v>
       </c>
       <c r="O10">
-        <v>0.1490600852462097</v>
+        <v>0.3240850283836438</v>
       </c>
       <c r="P10">
-        <v>0.1490600852462097</v>
+        <v>0.3240850283836438</v>
       </c>
       <c r="Q10">
         <v>19.13199075093056</v>
@@ -1066,10 +1066,10 @@
         <v>172.187916758375</v>
       </c>
       <c r="S10">
-        <v>0.02769927024421983</v>
+        <v>0.08677963540911256</v>
       </c>
       <c r="T10">
-        <v>0.02769927024421983</v>
+        <v>0.08677963540911254</v>
       </c>
     </row>
   </sheetData>
